--- a/spilt/学校模板.xlsx
+++ b/spilt/学校模板.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,280 +443,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(10006)北京航空航天大学</t>
+          <t>(10005)北京工业大学</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(10006)北京航空航天大学</t>
+          <t>(10005)北京工业大学</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
+          <t>(10005)北京工业大学</t>
         </is>
       </c>
     </row>
